--- a/Code/Results/Cases/Case_7_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.52841938853089</v>
+        <v>12.51192195968021</v>
       </c>
       <c r="C2">
-        <v>12.81835124025598</v>
+        <v>6.348783669657836</v>
       </c>
       <c r="D2">
-        <v>3.708855069816976</v>
+        <v>6.412556639069739</v>
       </c>
       <c r="E2">
-        <v>7.276214696171519</v>
+        <v>9.124341086184877</v>
       </c>
       <c r="F2">
-        <v>33.72383929379784</v>
+        <v>24.04482748243494</v>
       </c>
       <c r="G2">
-        <v>2.102821383480015</v>
+        <v>2.10891789647042</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.805374826930299</v>
+        <v>6.005259638795598</v>
       </c>
       <c r="K2">
-        <v>16.80740514636282</v>
+        <v>10.86818948308093</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.55301251771805</v>
+        <v>11.26260303050941</v>
       </c>
       <c r="N2">
-        <v>13.50451616615617</v>
+        <v>13.18891134192903</v>
       </c>
       <c r="O2">
-        <v>24.64519200690901</v>
+        <v>17.42550168666951</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.28298370157806</v>
+        <v>11.67019716827389</v>
       </c>
       <c r="C3">
-        <v>11.91256803239382</v>
+        <v>6.01552730403469</v>
       </c>
       <c r="D3">
-        <v>3.625430419628327</v>
+        <v>6.157597888490209</v>
       </c>
       <c r="E3">
-        <v>7.185124576380711</v>
+        <v>8.909111647510398</v>
       </c>
       <c r="F3">
-        <v>32.76623500456552</v>
+        <v>23.78712385871167</v>
       </c>
       <c r="G3">
-        <v>2.111748920317338</v>
+        <v>2.113583941266084</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.823959311909108</v>
+        <v>6.007943224059128</v>
       </c>
       <c r="K3">
-        <v>15.62828870198967</v>
+        <v>10.20363295364045</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.90302774778652</v>
+        <v>10.8185126485313</v>
       </c>
       <c r="N3">
-        <v>13.74927605482196</v>
+        <v>13.39065302746362</v>
       </c>
       <c r="O3">
-        <v>24.065174473927</v>
+        <v>17.41280080990845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.48782572380386</v>
+        <v>11.12281608896377</v>
       </c>
       <c r="C4">
-        <v>11.32688566983714</v>
+        <v>5.801056298474337</v>
       </c>
       <c r="D4">
-        <v>3.57431936080018</v>
+        <v>5.998115022018482</v>
       </c>
       <c r="E4">
-        <v>7.132347119628819</v>
+        <v>8.779018232763397</v>
       </c>
       <c r="F4">
-        <v>32.19719482397106</v>
+        <v>23.6454198766361</v>
       </c>
       <c r="G4">
-        <v>2.117372631888748</v>
+        <v>2.116542621045388</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.837791754900083</v>
+        <v>6.012014279255721</v>
       </c>
       <c r="K4">
-        <v>14.97826550130562</v>
+        <v>9.773059984538001</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.49796351905525</v>
+        <v>10.54087560907718</v>
       </c>
       <c r="N4">
-        <v>13.90291100194904</v>
+        <v>13.51735371651211</v>
       </c>
       <c r="O4">
-        <v>23.72636901785135</v>
+        <v>17.41745455043293</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.15600890758299</v>
+        <v>10.89202658972039</v>
       </c>
       <c r="C5">
-        <v>11.08070947130861</v>
+        <v>5.711226067143004</v>
       </c>
       <c r="D5">
-        <v>3.553540434646456</v>
+        <v>5.932484125977625</v>
       </c>
       <c r="E5">
-        <v>7.11163011689543</v>
+        <v>8.726585563678157</v>
       </c>
       <c r="F5">
-        <v>31.97018167906529</v>
+        <v>23.5917756855543</v>
       </c>
       <c r="G5">
-        <v>2.119701779335947</v>
+        <v>2.117772332505439</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.844020531735335</v>
+        <v>6.014270315958606</v>
       </c>
       <c r="K5">
-        <v>14.70758878908504</v>
+        <v>9.591948021498787</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.33160495065517</v>
+        <v>10.42665654004966</v>
       </c>
       <c r="N5">
-        <v>13.96638259187105</v>
+        <v>13.56971781776374</v>
       </c>
       <c r="O5">
-        <v>23.5926496103677</v>
+        <v>17.42237942739848</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.10044664222565</v>
+        <v>10.85323621772655</v>
       </c>
       <c r="C6">
-        <v>11.03937652004549</v>
+        <v>5.696164506158167</v>
       </c>
       <c r="D6">
-        <v>3.550093720896507</v>
+        <v>5.921550569410046</v>
       </c>
       <c r="E6">
-        <v>7.108237714858516</v>
+        <v>8.717916147987118</v>
       </c>
       <c r="F6">
-        <v>31.9327840947858</v>
+        <v>23.583114014535</v>
       </c>
       <c r="G6">
-        <v>2.120090841103492</v>
+        <v>2.117977989399028</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.845090088686334</v>
+        <v>6.014680630024374</v>
       </c>
       <c r="K6">
-        <v>14.66229980150341</v>
+        <v>9.56153395939997</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.30390998510728</v>
+        <v>10.40763061583725</v>
       </c>
       <c r="N6">
-        <v>13.97697481647067</v>
+        <v>13.57845767252066</v>
       </c>
       <c r="O6">
-        <v>23.57070766087344</v>
+        <v>17.42337708493583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.48338199024317</v>
+        <v>11.11973492508635</v>
       </c>
       <c r="C7">
-        <v>11.32359614518088</v>
+        <v>5.799854593973386</v>
       </c>
       <c r="D7">
-        <v>3.574038900892675</v>
+        <v>5.997232355881837</v>
       </c>
       <c r="E7">
-        <v>7.13206452704966</v>
+        <v>8.778308668558674</v>
       </c>
       <c r="F7">
-        <v>32.19411335448284</v>
+        <v>23.64467988607323</v>
       </c>
       <c r="G7">
-        <v>2.117403889837945</v>
+        <v>2.11655910748759</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.837873383343215</v>
+        <v>6.012042303761125</v>
       </c>
       <c r="K7">
-        <v>14.97463822065469</v>
+        <v>9.77064029276365</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.49572487804735</v>
+        <v>10.53933934658543</v>
       </c>
       <c r="N7">
-        <v>13.90376347495852</v>
+        <v>13.51805692415422</v>
       </c>
       <c r="O7">
-        <v>23.7245480516329</v>
+        <v>17.41750884352627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.10442733523061</v>
+        <v>12.22801149037919</v>
       </c>
       <c r="C8">
-        <v>12.5121149865487</v>
+        <v>6.2359452586643</v>
       </c>
       <c r="D8">
-        <v>3.680079276107744</v>
+        <v>6.32531211744352</v>
       </c>
       <c r="E8">
-        <v>7.244151316934848</v>
+        <v>9.049740899751969</v>
       </c>
       <c r="F8">
-        <v>33.38979584483856</v>
+        <v>23.95251151048383</v>
       </c>
       <c r="G8">
-        <v>2.105871144503432</v>
+        <v>2.110507583129618</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.811269680016795</v>
+        <v>6.005674553092553</v>
       </c>
       <c r="K8">
-        <v>16.40709750202378</v>
+        <v>10.6437333167559</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.33025287757644</v>
+        <v>11.11060631040205</v>
       </c>
       <c r="N8">
-        <v>13.58822665226736</v>
+        <v>13.25789722606733</v>
       </c>
       <c r="O8">
-        <v>24.4416009326086</v>
+        <v>17.41847654545565</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.24658709412174</v>
+        <v>14.16085703659466</v>
       </c>
       <c r="C9">
-        <v>14.61249811042423</v>
+        <v>7.011480554254835</v>
       </c>
       <c r="D9">
-        <v>3.888058815002739</v>
+        <v>6.94159897923652</v>
       </c>
       <c r="E9">
-        <v>7.489062253922555</v>
+        <v>9.595603746122563</v>
       </c>
       <c r="F9">
-        <v>35.88014930191083</v>
+        <v>24.6892343444841</v>
       </c>
       <c r="G9">
-        <v>2.084300794025756</v>
+        <v>2.099362194248848</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.779126838176584</v>
+        <v>6.012971060151107</v>
       </c>
       <c r="K9">
-        <v>19.15130967999064</v>
+        <v>12.17690519845189</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.91186462097707</v>
+        <v>12.18501014581213</v>
       </c>
       <c r="N9">
-        <v>12.99509344369049</v>
+        <v>12.76918974999576</v>
       </c>
       <c r="O9">
-        <v>25.98562060614677</v>
+        <v>17.52370122046682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.3833361798178</v>
+        <v>15.4371352110877</v>
       </c>
       <c r="C10">
-        <v>16.02132210030337</v>
+        <v>7.531347618023633</v>
       </c>
       <c r="D10">
-        <v>4.039868347947655</v>
+        <v>7.373573506599317</v>
       </c>
       <c r="E10">
-        <v>7.684470939096341</v>
+        <v>10.00142128248132</v>
       </c>
       <c r="F10">
-        <v>37.79389171063164</v>
+        <v>25.31362443302563</v>
       </c>
       <c r="G10">
-        <v>2.068964324690028</v>
+        <v>2.091581476424251</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.768930455193684</v>
+        <v>6.031162209113509</v>
       </c>
       <c r="K10">
-        <v>20.99011969464469</v>
+        <v>13.19461125057691</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.03274485478819</v>
+        <v>12.9390585385101</v>
       </c>
       <c r="N10">
-        <v>12.57366084994931</v>
+        <v>12.42175629674022</v>
       </c>
       <c r="O10">
-        <v>27.20503448333379</v>
+        <v>17.67006539983019</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.31369384628402</v>
+        <v>15.98715404558945</v>
       </c>
       <c r="C11">
-        <v>16.63455413120332</v>
+        <v>7.756863702406874</v>
       </c>
       <c r="D11">
-        <v>4.108542836183123</v>
+        <v>7.564861395320792</v>
       </c>
       <c r="E11">
-        <v>7.776779943956356</v>
+        <v>10.18639818696043</v>
       </c>
       <c r="F11">
-        <v>38.68235825430661</v>
+        <v>25.61598235607311</v>
       </c>
       <c r="G11">
-        <v>2.062067113034596</v>
+        <v>2.088122887267796</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.76749767575725</v>
+        <v>6.042391143308883</v>
       </c>
       <c r="K11">
-        <v>21.79001392429797</v>
+        <v>13.63420391690074</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.59451414010674</v>
+        <v>13.27321766581149</v>
       </c>
       <c r="N11">
-        <v>12.38480512818754</v>
+        <v>12.26587976735142</v>
       </c>
       <c r="O11">
-        <v>27.77868295611162</v>
+        <v>17.75289901147944</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.66018361136013</v>
+        <v>16.19108847436557</v>
       </c>
       <c r="C12">
-        <v>16.86292919241818</v>
+        <v>7.840677631148719</v>
       </c>
       <c r="D12">
-        <v>4.134481631990914</v>
+        <v>7.63649952072586</v>
       </c>
       <c r="E12">
-        <v>7.812232324118408</v>
+        <v>10.25644631786621</v>
       </c>
       <c r="F12">
-        <v>39.02138763307616</v>
+        <v>25.73312235377281</v>
       </c>
       <c r="G12">
-        <v>2.059463837118399</v>
+        <v>2.086824193114423</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.767442709028306</v>
+        <v>6.047081823401961</v>
       </c>
       <c r="K12">
-        <v>22.08782184003759</v>
+        <v>13.7973297422046</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.83406256041417</v>
+        <v>13.39840114596046</v>
       </c>
       <c r="N12">
-        <v>12.31368450368383</v>
+        <v>12.20713601942548</v>
       </c>
       <c r="O12">
-        <v>27.99869153192728</v>
+        <v>17.78670200018332</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.58581653856218</v>
+        <v>16.14736001863884</v>
       </c>
       <c r="C13">
-        <v>16.81391317628922</v>
+        <v>7.822697301190641</v>
       </c>
       <c r="D13">
-        <v>4.128898369580951</v>
+        <v>7.621107154076006</v>
       </c>
       <c r="E13">
-        <v>7.804574800242133</v>
+        <v>10.2413609056187</v>
       </c>
       <c r="F13">
-        <v>38.94825581795874</v>
+        <v>25.70777648171913</v>
       </c>
       <c r="G13">
-        <v>2.060024168016701</v>
+        <v>2.087103411484419</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.767432413010601</v>
+        <v>6.046051876471999</v>
       </c>
       <c r="K13">
-        <v>22.0239073445657</v>
+        <v>13.76234575859467</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.78265220334041</v>
+        <v>13.37150205828008</v>
       </c>
       <c r="N13">
-        <v>12.328984251893</v>
+        <v>12.21977541896951</v>
       </c>
       <c r="O13">
-        <v>27.95118386850388</v>
+        <v>17.77931205031313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.34231526854356</v>
+        <v>16.00401865969393</v>
       </c>
       <c r="C14">
-        <v>16.65341888689434</v>
+        <v>7.763790890347856</v>
       </c>
       <c r="D14">
-        <v>4.110678229974953</v>
+        <v>7.57077135381121</v>
       </c>
       <c r="E14">
-        <v>7.779686631474384</v>
+        <v>10.1921613386466</v>
       </c>
       <c r="F14">
-        <v>38.71019831836841</v>
+        <v>25.62556651454987</v>
       </c>
       <c r="G14">
-        <v>2.061852786183673</v>
+        <v>2.088015826260972</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.767483220928804</v>
+        <v>6.042768180047213</v>
       </c>
       <c r="K14">
-        <v>21.81461585603111</v>
+        <v>13.64769114235493</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.61430356042161</v>
+        <v>13.28354416135285</v>
       </c>
       <c r="N14">
-        <v>12.37894615462324</v>
+        <v>12.26104137899372</v>
       </c>
       <c r="O14">
-        <v>27.79672704034309</v>
+        <v>17.75563063284655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.19241174772339</v>
+        <v>15.91565349035721</v>
       </c>
       <c r="C15">
-        <v>16.55461525567711</v>
+        <v>7.727502617052282</v>
       </c>
       <c r="D15">
-        <v>4.099508883307116</v>
+        <v>7.539833962501927</v>
       </c>
       <c r="E15">
-        <v>7.764506838550862</v>
+        <v>10.16202391855432</v>
       </c>
       <c r="F15">
-        <v>38.56471928128391</v>
+        <v>25.57555501223971</v>
       </c>
       <c r="G15">
-        <v>2.062973890396666</v>
+        <v>2.088576119512886</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.767578670122841</v>
+        <v>6.040814342503354</v>
       </c>
       <c r="K15">
-        <v>21.68576050813225</v>
+        <v>13.57702784592705</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.51065365789903</v>
+        <v>13.22948874963132</v>
       </c>
       <c r="N15">
-        <v>12.40960028474833</v>
+        <v>12.28635397212679</v>
       </c>
       <c r="O15">
-        <v>27.70248204912268</v>
+        <v>17.74144516440282</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.32171124133811</v>
+        <v>15.40057932217507</v>
       </c>
       <c r="C16">
-        <v>15.98070068340591</v>
+        <v>7.516388154386341</v>
       </c>
       <c r="D16">
-        <v>4.035371531167871</v>
+        <v>7.360963077610369</v>
       </c>
       <c r="E16">
-        <v>7.678507509663481</v>
+        <v>9.989335498283266</v>
       </c>
       <c r="F16">
-        <v>37.7361884455589</v>
+        <v>25.2942341690294</v>
       </c>
       <c r="G16">
-        <v>2.069416433171892</v>
+        <v>2.091809077839522</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.769090822505234</v>
+        <v>6.030488982534635</v>
       </c>
       <c r="K16">
-        <v>20.93712237908178</v>
+        <v>13.16541439048251</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.99986409456985</v>
+        <v>12.91703487265908</v>
       </c>
       <c r="N16">
-        <v>12.58605906688917</v>
+        <v>12.43198446518201</v>
       </c>
       <c r="O16">
-        <v>27.16793050810358</v>
+        <v>17.66498755529196</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.77701215682982</v>
+        <v>15.07680406448024</v>
       </c>
       <c r="C17">
-        <v>15.62163202798498</v>
+        <v>7.384059647605135</v>
       </c>
       <c r="D17">
-        <v>3.995917874709851</v>
+        <v>7.249857977362431</v>
       </c>
       <c r="E17">
-        <v>7.626628092661624</v>
+        <v>9.883452862481077</v>
       </c>
       <c r="F17">
-        <v>37.23248932144125</v>
+        <v>25.12635319250008</v>
       </c>
       <c r="G17">
-        <v>2.07338711607164</v>
+        <v>2.093812673134384</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.7708577799984</v>
+        <v>6.02492097831126</v>
       </c>
       <c r="K17">
-        <v>20.46859982346426</v>
+        <v>12.90693206789277</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.71059416352715</v>
+        <v>12.72302252814288</v>
       </c>
       <c r="N17">
-        <v>12.69503013841914</v>
+        <v>12.52186036110938</v>
       </c>
       <c r="O17">
-        <v>26.84488231955572</v>
+        <v>17.622316843652</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.45978278065597</v>
+        <v>14.88769697946185</v>
       </c>
       <c r="C18">
-        <v>15.41249408177193</v>
+        <v>7.306914885426366</v>
       </c>
       <c r="D18">
-        <v>3.973189514262502</v>
+        <v>7.185464283513836</v>
       </c>
       <c r="E18">
-        <v>7.59710955453035</v>
+        <v>9.822589444452063</v>
       </c>
       <c r="F18">
-        <v>36.94445580923583</v>
+        <v>25.03151664656083</v>
       </c>
       <c r="G18">
-        <v>2.075678612507825</v>
+        <v>2.094972742821944</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.772174095520053</v>
+        <v>6.021995591072182</v>
       </c>
       <c r="K18">
-        <v>20.19566323310733</v>
+        <v>12.75605885929967</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.54328564448173</v>
+        <v>12.6106015637252</v>
       </c>
       <c r="N18">
-        <v>12.75797702756583</v>
+        <v>12.57376094764692</v>
       </c>
       <c r="O18">
-        <v>26.66085053989437</v>
+        <v>17.59929774091575</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.35169390848524</v>
+        <v>14.82317241706892</v>
       </c>
       <c r="C19">
-        <v>15.34123124014276</v>
+        <v>7.280617858298835</v>
       </c>
       <c r="D19">
-        <v>3.965488350536226</v>
+        <v>7.163579300380056</v>
       </c>
       <c r="E19">
-        <v>7.587170104282784</v>
+        <v>9.801990225433967</v>
       </c>
       <c r="F19">
-        <v>36.84722169312916</v>
+        <v>24.99970238619809</v>
       </c>
       <c r="G19">
-        <v>2.076455872947205</v>
+        <v>2.095366855917261</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.772670527914074</v>
+        <v>6.021052293961155</v>
       </c>
       <c r="K19">
-        <v>20.10265337869415</v>
+        <v>12.70459716862835</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.48648020573377</v>
+        <v>12.5723978841057</v>
       </c>
       <c r="N19">
-        <v>12.77933659969236</v>
+        <v>12.59136989395516</v>
       </c>
       <c r="O19">
-        <v>26.59884439738129</v>
+        <v>17.59176255878926</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.8354021431941</v>
+        <v>15.11156821975933</v>
       </c>
       <c r="C20">
-        <v>15.66012481810299</v>
+        <v>7.398253204289837</v>
       </c>
       <c r="D20">
-        <v>4.000121566226196</v>
+        <v>7.261736285957096</v>
       </c>
       <c r="E20">
-        <v>7.632117475956369</v>
+        <v>9.894720760938338</v>
       </c>
       <c r="F20">
-        <v>37.28593504660233</v>
+        <v>25.14404588436945</v>
       </c>
       <c r="G20">
-        <v>2.072963656691932</v>
+        <v>2.093598599245126</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.770638448694602</v>
+        <v>6.025484915292766</v>
       </c>
       <c r="K20">
-        <v>20.5188312466895</v>
+        <v>12.93467560550006</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.74148389198895</v>
+        <v>12.74376202970342</v>
       </c>
       <c r="N20">
-        <v>12.68340220252371</v>
+        <v>12.51227176767264</v>
       </c>
       <c r="O20">
-        <v>26.87908710277402</v>
+        <v>17.62670076597861</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.41399386242446</v>
+        <v>16.04623903115503</v>
       </c>
       <c r="C21">
-        <v>16.7006631107514</v>
+        <v>7.781136147906127</v>
       </c>
       <c r="D21">
-        <v>4.116031815661007</v>
+        <v>7.585578208534644</v>
       </c>
       <c r="E21">
-        <v>7.786983345080984</v>
+        <v>10.20661279261854</v>
       </c>
       <c r="F21">
-        <v>38.78005103171417</v>
+        <v>25.64964177543494</v>
       </c>
       <c r="G21">
-        <v>2.061315469120517</v>
+        <v>2.08774753467234</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.767454840815591</v>
+        <v>6.043720669034667</v>
       </c>
       <c r="K21">
-        <v>21.87622670260113</v>
+        <v>13.6814583895553</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.66386214562127</v>
+        <v>13.30941688477175</v>
       </c>
       <c r="N21">
-        <v>12.36426052290765</v>
+        <v>12.24891311813909</v>
       </c>
       <c r="O21">
-        <v>27.84201869648821</v>
+        <v>17.76251956173119</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.41188761765262</v>
+        <v>16.63179411790671</v>
       </c>
       <c r="C22">
-        <v>17.35838888396465</v>
+        <v>8.022139330826901</v>
       </c>
       <c r="D22">
-        <v>4.19139353300673</v>
+        <v>7.792557194806101</v>
       </c>
       <c r="E22">
-        <v>7.891098382926348</v>
+        <v>10.41044007973233</v>
       </c>
       <c r="F22">
-        <v>39.77166084446824</v>
+        <v>25.99548856556265</v>
       </c>
       <c r="G22">
-        <v>2.05375096962038</v>
+        <v>2.083987311314362</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.768230271684498</v>
+        <v>6.058201388054209</v>
       </c>
       <c r="K22">
-        <v>22.73375613783348</v>
+        <v>14.15007864053641</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.35360593594001</v>
+        <v>13.67117763502805</v>
       </c>
       <c r="N22">
-        <v>12.15798036656944</v>
+        <v>12.07842955814485</v>
       </c>
       <c r="O22">
-        <v>28.48760429320073</v>
+        <v>17.86552600232584</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.88232334563036</v>
+        <v>16.32157107676487</v>
       </c>
       <c r="C23">
-        <v>17.00934361307805</v>
+        <v>7.894356986192941</v>
       </c>
       <c r="D23">
-        <v>4.151210523406864</v>
+        <v>7.682529659151989</v>
       </c>
       <c r="E23">
-        <v>7.835262212705313</v>
+        <v>10.30167046377113</v>
       </c>
       <c r="F23">
-        <v>39.24101903105171</v>
+        <v>25.80949151965554</v>
       </c>
       <c r="G23">
-        <v>2.057784900629374</v>
+        <v>2.085988596542669</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.767545678500938</v>
+        <v>6.050233674031078</v>
       </c>
       <c r="K23">
-        <v>22.27872641199546</v>
+        <v>13.90173813555571</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.98761659260634</v>
+        <v>13.47884752674436</v>
       </c>
       <c r="N23">
-        <v>12.26787001983203</v>
+        <v>12.16928018894094</v>
       </c>
       <c r="O23">
-        <v>28.14152913785966</v>
+        <v>17.80921455607818</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.80901673479899</v>
+        <v>15.09586058226898</v>
       </c>
       <c r="C24">
-        <v>15.64273066180769</v>
+        <v>7.391839621327562</v>
       </c>
       <c r="D24">
-        <v>3.998221219439936</v>
+        <v>7.256367712033686</v>
       </c>
       <c r="E24">
-        <v>7.629634767960057</v>
+        <v>9.889626509172658</v>
       </c>
       <c r="F24">
-        <v>37.26176740719326</v>
+        <v>25.1360417848415</v>
       </c>
       <c r="G24">
-        <v>2.073155075372315</v>
+        <v>2.093695356536117</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.770736674472973</v>
+        <v>6.025229101579688</v>
       </c>
       <c r="K24">
-        <v>20.49613277339742</v>
+        <v>12.92213981892492</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.72752176756789</v>
+        <v>12.73438843786522</v>
       </c>
       <c r="N24">
-        <v>12.68865826299755</v>
+        <v>12.51660605300561</v>
       </c>
       <c r="O24">
-        <v>26.86361785118654</v>
+        <v>17.62471408998907</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.42171895266577</v>
+        <v>13.66342892391674</v>
       </c>
       <c r="C25">
-        <v>14.06834830246917</v>
+        <v>6.810373719452036</v>
       </c>
       <c r="D25">
-        <v>3.831903102689959</v>
+        <v>6.778259396678084</v>
       </c>
       <c r="E25">
-        <v>7.420103472506298</v>
+        <v>9.446852370734446</v>
       </c>
       <c r="F25">
-        <v>35.19142181182846</v>
+        <v>24.47544407411505</v>
       </c>
       <c r="G25">
-        <v>2.090036563779659</v>
+        <v>2.102303281568769</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.785558702462634</v>
+        <v>6.008800011050034</v>
       </c>
       <c r="K25">
-        <v>18.44067304814637</v>
+        <v>11.78128770744072</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.49078858261773</v>
+        <v>11.90009213263005</v>
       </c>
       <c r="N25">
-        <v>13.15294354613089</v>
+        <v>12.8992467638886</v>
       </c>
       <c r="O25">
-        <v>25.55308647145709</v>
+        <v>17.48353933189924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.51192195968021</v>
+        <v>11.99562131285277</v>
       </c>
       <c r="C2">
-        <v>6.348783669657836</v>
+        <v>6.549433226907755</v>
       </c>
       <c r="D2">
-        <v>6.412556639069739</v>
+        <v>7.632554719209314</v>
       </c>
       <c r="E2">
-        <v>9.124341086184877</v>
+        <v>10.49533844493638</v>
       </c>
       <c r="F2">
-        <v>24.04482748243494</v>
+        <v>20.74076664456784</v>
       </c>
       <c r="G2">
-        <v>2.10891789647042</v>
+        <v>21.48718481350682</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.964243184740294</v>
       </c>
       <c r="J2">
-        <v>6.005259638795598</v>
+        <v>8.929955762620624</v>
       </c>
       <c r="K2">
-        <v>10.86818948308093</v>
+        <v>13.17379629646802</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.600632790253826</v>
       </c>
       <c r="M2">
-        <v>11.26260303050941</v>
+        <v>10.76870369856153</v>
       </c>
       <c r="N2">
-        <v>13.18891134192903</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.42550168666951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.32222663470136</v>
+      </c>
+      <c r="P2">
+        <v>12.43643281253769</v>
+      </c>
+      <c r="Q2">
+        <v>14.38251529653018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.67019716827389</v>
+        <v>11.25594770849358</v>
       </c>
       <c r="C3">
-        <v>6.01552730403469</v>
+        <v>6.205154265081398</v>
       </c>
       <c r="D3">
-        <v>6.157597888490209</v>
+        <v>7.325722872030831</v>
       </c>
       <c r="E3">
-        <v>8.909111647510398</v>
+        <v>10.16467844977259</v>
       </c>
       <c r="F3">
-        <v>23.78712385871167</v>
+        <v>20.48221613043652</v>
       </c>
       <c r="G3">
-        <v>2.113583941266084</v>
+        <v>21.24999335548357</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.152060567775271</v>
       </c>
       <c r="J3">
-        <v>6.007943224059128</v>
+        <v>8.96746012207776</v>
       </c>
       <c r="K3">
-        <v>10.20363295364045</v>
+        <v>13.28523911044352</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.508993187490507</v>
       </c>
       <c r="M3">
-        <v>10.8185126485313</v>
+        <v>10.18760341795471</v>
       </c>
       <c r="N3">
-        <v>13.39065302746362</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.41280080990845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.82185541534739</v>
+      </c>
+      <c r="P3">
+        <v>12.57079626141022</v>
+      </c>
+      <c r="Q3">
+        <v>14.3816969764894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12281608896377</v>
+        <v>10.77537959875516</v>
       </c>
       <c r="C4">
-        <v>5.801056298474337</v>
+        <v>5.983381989753285</v>
       </c>
       <c r="D4">
-        <v>5.998115022018482</v>
+        <v>7.131350400011291</v>
       </c>
       <c r="E4">
-        <v>8.779018232763397</v>
+        <v>9.955869319390478</v>
       </c>
       <c r="F4">
-        <v>23.6454198766361</v>
+        <v>20.33137886912975</v>
       </c>
       <c r="G4">
-        <v>2.116542621045388</v>
+        <v>21.118144909104</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.271777672658236</v>
       </c>
       <c r="J4">
-        <v>6.012014279255721</v>
+        <v>8.993847999145935</v>
       </c>
       <c r="K4">
-        <v>9.773059984538001</v>
+        <v>13.35989574090725</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.451441588474434</v>
       </c>
       <c r="M4">
-        <v>10.54087560907718</v>
+        <v>9.81245728837971</v>
       </c>
       <c r="N4">
-        <v>13.51735371651211</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.41745455043293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.50323500608032</v>
+      </c>
+      <c r="P4">
+        <v>12.65541288838502</v>
+      </c>
+      <c r="Q4">
+        <v>14.38855520889492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.89202658972039</v>
+        <v>10.57292511061403</v>
       </c>
       <c r="C5">
-        <v>5.711226067143004</v>
+        <v>5.890455052791889</v>
       </c>
       <c r="D5">
-        <v>5.932484125977625</v>
+        <v>7.05073483272148</v>
       </c>
       <c r="E5">
-        <v>8.726585563678157</v>
+        <v>9.869404986585046</v>
       </c>
       <c r="F5">
-        <v>23.5917756855543</v>
+        <v>20.27192043244674</v>
       </c>
       <c r="G5">
-        <v>2.117772332505439</v>
+        <v>21.06784483112152</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.321681255817911</v>
       </c>
       <c r="J5">
-        <v>6.014270315958606</v>
+        <v>9.005426887325905</v>
       </c>
       <c r="K5">
-        <v>9.591948021498787</v>
+        <v>13.39184244464541</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.427673196390361</v>
       </c>
       <c r="M5">
-        <v>10.42665654004966</v>
+        <v>9.655044598364523</v>
       </c>
       <c r="N5">
-        <v>13.56971781776374</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.42237942739848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.37067467004487</v>
+      </c>
+      <c r="P5">
+        <v>12.69043443334301</v>
+      </c>
+      <c r="Q5">
+        <v>14.39315131915398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85323621772655</v>
+        <v>10.53890874431554</v>
       </c>
       <c r="C6">
-        <v>5.696164506158167</v>
+        <v>5.874872357198014</v>
       </c>
       <c r="D6">
-        <v>5.921550569410046</v>
+        <v>7.037266715154966</v>
       </c>
       <c r="E6">
-        <v>8.717916147987118</v>
+        <v>9.854967248547613</v>
       </c>
       <c r="F6">
-        <v>23.583114014535</v>
+        <v>20.26216919463216</v>
       </c>
       <c r="G6">
-        <v>2.117977989399028</v>
+        <v>21.0596983516837</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.330035581647775</v>
       </c>
       <c r="J6">
-        <v>6.014680630024374</v>
+        <v>9.007398864406666</v>
       </c>
       <c r="K6">
-        <v>9.56153395939997</v>
+        <v>13.39723796722432</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.423707629321015</v>
       </c>
       <c r="M6">
-        <v>10.40763061583725</v>
+        <v>9.628634861897236</v>
       </c>
       <c r="N6">
-        <v>13.57845767252066</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.42337708493583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.34850348409322</v>
+      </c>
+      <c r="P6">
+        <v>12.69628253366276</v>
+      </c>
+      <c r="Q6">
+        <v>14.39402183576362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.11973492508635</v>
+        <v>10.77267599189996</v>
       </c>
       <c r="C7">
-        <v>5.799854593973386</v>
+        <v>5.982138995525984</v>
       </c>
       <c r="D7">
-        <v>5.997232355881837</v>
+        <v>7.130268752942285</v>
       </c>
       <c r="E7">
-        <v>8.778308668558674</v>
+        <v>9.954708677304467</v>
       </c>
       <c r="F7">
-        <v>23.64467988607323</v>
+        <v>20.33056883628886</v>
       </c>
       <c r="G7">
-        <v>2.11655910748759</v>
+        <v>21.11745271734461</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.272446147357314</v>
       </c>
       <c r="J7">
-        <v>6.012042303761125</v>
+        <v>8.994000838274188</v>
       </c>
       <c r="K7">
-        <v>9.77064029276365</v>
+        <v>13.36032047204619</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.451122307752613</v>
       </c>
       <c r="M7">
-        <v>10.53933934658543</v>
+        <v>9.810352624662045</v>
       </c>
       <c r="N7">
-        <v>13.51805692415422</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.41750884352627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.50145805773927</v>
+      </c>
+      <c r="P7">
+        <v>12.65588300690347</v>
+      </c>
+      <c r="Q7">
+        <v>14.38860996601096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.22801149037919</v>
+        <v>11.74607155636892</v>
       </c>
       <c r="C8">
-        <v>6.2359452586643</v>
+        <v>6.43291213797509</v>
       </c>
       <c r="D8">
-        <v>6.32531211744352</v>
+        <v>7.528053259185516</v>
       </c>
       <c r="E8">
-        <v>9.049740899751969</v>
+        <v>10.38257338804172</v>
       </c>
       <c r="F8">
-        <v>23.95251151048383</v>
+        <v>20.64998879789744</v>
       </c>
       <c r="G8">
-        <v>2.110507583129618</v>
+        <v>21.40251979457052</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.028097686289346</v>
       </c>
       <c r="J8">
-        <v>6.005674553092553</v>
+        <v>8.942178106251891</v>
       </c>
       <c r="K8">
-        <v>10.6437333167559</v>
+        <v>13.21090206656249</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.569306357842403</v>
       </c>
       <c r="M8">
-        <v>11.11060631040205</v>
+        <v>10.57218890195614</v>
       </c>
       <c r="N8">
-        <v>13.25789722606733</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.41847654545565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.15214287796698</v>
+      </c>
+      <c r="P8">
+        <v>12.48232639559598</v>
+      </c>
+      <c r="Q8">
+        <v>14.38067577512459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.16085703659466</v>
+        <v>13.44497591854077</v>
       </c>
       <c r="C9">
-        <v>7.011480554254835</v>
+        <v>7.232508655702458</v>
       </c>
       <c r="D9">
-        <v>6.94159897923652</v>
+        <v>8.257071283970813</v>
       </c>
       <c r="E9">
-        <v>9.595603746122563</v>
+        <v>11.17255713521415</v>
       </c>
       <c r="F9">
-        <v>24.6892343444841</v>
+        <v>21.33811462925372</v>
       </c>
       <c r="G9">
-        <v>2.099362194248848</v>
+        <v>22.0721396455225</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.583235621692126</v>
       </c>
       <c r="J9">
-        <v>6.012971060151107</v>
+        <v>8.868107714867099</v>
       </c>
       <c r="K9">
-        <v>12.17690519845189</v>
+        <v>12.96937207454235</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.79057203135006</v>
       </c>
       <c r="M9">
-        <v>12.18501014581213</v>
+        <v>11.91804190459195</v>
       </c>
       <c r="N9">
-        <v>12.76918974999576</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.52370122046682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.33243839653602</v>
+      </c>
+      <c r="P9">
+        <v>12.15843764084777</v>
+      </c>
+      <c r="Q9">
+        <v>14.42570817106117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.4371352110877</v>
+        <v>14.5581864172359</v>
       </c>
       <c r="C10">
-        <v>7.531347618023633</v>
+        <v>7.745635458808159</v>
       </c>
       <c r="D10">
-        <v>7.373573506599317</v>
+        <v>8.676451645565054</v>
       </c>
       <c r="E10">
-        <v>10.00142128248132</v>
+        <v>11.54556905931287</v>
       </c>
       <c r="F10">
-        <v>25.31362443302563</v>
+        <v>21.75873068936552</v>
       </c>
       <c r="G10">
-        <v>2.091581476424251</v>
+        <v>22.50704564787539</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.830181129805946</v>
       </c>
       <c r="J10">
-        <v>6.031162209113509</v>
+        <v>8.81206680319279</v>
       </c>
       <c r="K10">
-        <v>13.19461125057691</v>
+        <v>12.79271072419054</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.880145761632224</v>
       </c>
       <c r="M10">
-        <v>12.9390585385101</v>
+        <v>12.80258570135547</v>
       </c>
       <c r="N10">
-        <v>12.42175629674022</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.67006539983019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.02773489738999</v>
+      </c>
+      <c r="P10">
+        <v>11.93298363848741</v>
+      </c>
+      <c r="Q10">
+        <v>14.44754269774285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.98715404558945</v>
+        <v>14.9776262546698</v>
       </c>
       <c r="C11">
-        <v>7.756863702406874</v>
+        <v>7.789334104498137</v>
       </c>
       <c r="D11">
-        <v>7.564861395320792</v>
+        <v>8.165451179918785</v>
       </c>
       <c r="E11">
-        <v>10.18639818696043</v>
+        <v>10.2711443403535</v>
       </c>
       <c r="F11">
-        <v>25.61598235607311</v>
+        <v>20.90973106633806</v>
       </c>
       <c r="G11">
-        <v>2.088122887267796</v>
+        <v>21.62933655315231</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.761087987202789</v>
       </c>
       <c r="J11">
-        <v>6.042391143308883</v>
+        <v>8.618681936989194</v>
       </c>
       <c r="K11">
-        <v>13.63420391690074</v>
+        <v>12.42844256333098</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.416359534305946</v>
       </c>
       <c r="M11">
-        <v>13.27321766581149</v>
+        <v>13.08673231848676</v>
       </c>
       <c r="N11">
-        <v>12.26587976735142</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.75289901147944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.40518595407928</v>
+      </c>
+      <c r="P11">
+        <v>11.86629715666819</v>
+      </c>
+      <c r="Q11">
+        <v>14.02083994754169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.19108847436557</v>
+        <v>15.10555858926669</v>
       </c>
       <c r="C12">
-        <v>7.840677631148719</v>
+        <v>7.721596146093271</v>
       </c>
       <c r="D12">
-        <v>7.63649952072586</v>
+        <v>7.644544460394178</v>
       </c>
       <c r="E12">
-        <v>10.25644631786621</v>
+        <v>9.209902840964352</v>
       </c>
       <c r="F12">
-        <v>25.73312235377281</v>
+        <v>20.09060281861771</v>
       </c>
       <c r="G12">
-        <v>2.086824193114423</v>
+        <v>20.77484599724128</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.065379751289358</v>
       </c>
       <c r="J12">
-        <v>6.047081823401961</v>
+        <v>8.463663444378447</v>
       </c>
       <c r="K12">
-        <v>13.7973297422046</v>
+        <v>12.15449589514935</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.111459002702575</v>
       </c>
       <c r="M12">
-        <v>13.39840114596046</v>
+        <v>13.14647133144422</v>
       </c>
       <c r="N12">
-        <v>12.20713601942548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.78670200018332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.72747448352921</v>
+      </c>
+      <c r="P12">
+        <v>11.8663422501763</v>
+      </c>
+      <c r="Q12">
+        <v>13.64728190747049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.14736001863884</v>
+        <v>15.02137131114336</v>
       </c>
       <c r="C13">
-        <v>7.822697301190641</v>
+        <v>7.562424762259468</v>
       </c>
       <c r="D13">
-        <v>7.621107154076006</v>
+        <v>7.074398802139482</v>
       </c>
       <c r="E13">
-        <v>10.2413609056187</v>
+        <v>8.273366688367918</v>
       </c>
       <c r="F13">
-        <v>25.70777648171913</v>
+        <v>19.23801648628142</v>
       </c>
       <c r="G13">
-        <v>2.087103411484419</v>
+        <v>19.87566581132155</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.461322226823959</v>
       </c>
       <c r="J13">
-        <v>6.046051876471999</v>
+        <v>8.328803437483927</v>
       </c>
       <c r="K13">
-        <v>13.76234575859467</v>
+        <v>11.93428526001909</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.922919028375985</v>
       </c>
       <c r="M13">
-        <v>13.37150205828008</v>
+        <v>13.03914989935829</v>
       </c>
       <c r="N13">
-        <v>12.21977541896951</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.77931205031313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.95070615327544</v>
+      </c>
+      <c r="P13">
+        <v>11.91453204622407</v>
+      </c>
+      <c r="Q13">
+        <v>13.29090064269272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.00401865969393</v>
+        <v>14.86541142003824</v>
       </c>
       <c r="C14">
-        <v>7.763790890347856</v>
+        <v>7.407986415919475</v>
       </c>
       <c r="D14">
-        <v>7.57077135381121</v>
+        <v>6.65010633166101</v>
       </c>
       <c r="E14">
-        <v>10.1921613386466</v>
+        <v>7.720531040914068</v>
       </c>
       <c r="F14">
-        <v>25.62556651454987</v>
+        <v>18.62705830128202</v>
       </c>
       <c r="G14">
-        <v>2.088015826260972</v>
+        <v>19.22552895613585</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.488634557713419</v>
       </c>
       <c r="J14">
-        <v>6.042768180047213</v>
+        <v>8.244287463995112</v>
       </c>
       <c r="K14">
-        <v>13.64769114235493</v>
+        <v>11.80659919311949</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.865448052741792</v>
       </c>
       <c r="M14">
-        <v>13.28354416135285</v>
+        <v>12.88723738531027</v>
       </c>
       <c r="N14">
-        <v>12.26104137899372</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.75563063284655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.35515100635437</v>
+      </c>
+      <c r="P14">
+        <v>11.96974282941469</v>
+      </c>
+      <c r="Q14">
+        <v>13.05084706611484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.91565349035721</v>
+        <v>14.78135526486763</v>
       </c>
       <c r="C15">
-        <v>7.727502617052282</v>
+        <v>7.350171040488643</v>
       </c>
       <c r="D15">
-        <v>7.539833962501927</v>
+        <v>6.535807630034396</v>
       </c>
       <c r="E15">
-        <v>10.16202391855432</v>
+        <v>7.601820636158379</v>
       </c>
       <c r="F15">
-        <v>25.57555501223971</v>
+        <v>18.47354764643368</v>
       </c>
       <c r="G15">
-        <v>2.088576119512886</v>
+        <v>19.06092786749092</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.726245217822462</v>
       </c>
       <c r="J15">
-        <v>6.040814342503354</v>
+        <v>8.228674267387523</v>
       </c>
       <c r="K15">
-        <v>13.57702784592705</v>
+        <v>11.78786044365527</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.86101122024158</v>
       </c>
       <c r="M15">
-        <v>13.22948874963132</v>
+        <v>12.81385380728568</v>
       </c>
       <c r="N15">
-        <v>12.28635397212679</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.74144516440282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.18844458824621</v>
+      </c>
+      <c r="P15">
+        <v>11.99182980465732</v>
+      </c>
+      <c r="Q15">
+        <v>12.99768872839483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.40057932217507</v>
+        <v>14.33857647305805</v>
       </c>
       <c r="C16">
-        <v>7.516388154386341</v>
+        <v>7.160846174563668</v>
       </c>
       <c r="D16">
-        <v>7.360963077610369</v>
+        <v>6.447131998389066</v>
       </c>
       <c r="E16">
-        <v>9.989335498283266</v>
+        <v>7.604235904639632</v>
       </c>
       <c r="F16">
-        <v>25.2942341690294</v>
+        <v>18.45196938466863</v>
       </c>
       <c r="G16">
-        <v>2.091809077839522</v>
+        <v>19.03378941092023</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.515458068856912</v>
       </c>
       <c r="J16">
-        <v>6.030488982534635</v>
+        <v>8.279695553173582</v>
       </c>
       <c r="K16">
-        <v>13.16541439048251</v>
+        <v>11.90886354077839</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.854747927809137</v>
       </c>
       <c r="M16">
-        <v>12.91703487265908</v>
+        <v>12.46598544075054</v>
       </c>
       <c r="N16">
-        <v>12.43198446518201</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.66498755529196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.01205108481374</v>
+      </c>
+      <c r="P16">
+        <v>12.06974025825145</v>
+      </c>
+      <c r="Q16">
+        <v>13.05799276106421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.07680406448024</v>
+        <v>14.07831678973689</v>
       </c>
       <c r="C17">
-        <v>7.384059647605135</v>
+        <v>7.098561071988131</v>
       </c>
       <c r="D17">
-        <v>7.249857977362431</v>
+        <v>6.610257791026513</v>
       </c>
       <c r="E17">
-        <v>9.883452862481077</v>
+        <v>7.879599768710589</v>
       </c>
       <c r="F17">
-        <v>25.12635319250008</v>
+        <v>18.76372793613421</v>
       </c>
       <c r="G17">
-        <v>2.093812673134384</v>
+        <v>19.3651818551296</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.774924601191363</v>
       </c>
       <c r="J17">
-        <v>6.02492097831126</v>
+        <v>8.363944992679231</v>
       </c>
       <c r="K17">
-        <v>12.90693206789277</v>
+        <v>12.06916949439909</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.86887428765845</v>
       </c>
       <c r="M17">
-        <v>12.72302252814288</v>
+        <v>12.27814647753507</v>
       </c>
       <c r="N17">
-        <v>12.52186036110938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.622316843652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.20330908547665</v>
+      </c>
+      <c r="P17">
+        <v>12.10160897022743</v>
+      </c>
+      <c r="Q17">
+        <v>13.23263546710394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.88769697946185</v>
+        <v>13.95236532931653</v>
       </c>
       <c r="C18">
-        <v>7.306914885426366</v>
+        <v>7.14201052357938</v>
       </c>
       <c r="D18">
-        <v>7.185464283513836</v>
+        <v>7.013546753530943</v>
       </c>
       <c r="E18">
-        <v>9.822589444452063</v>
+        <v>8.530929213520604</v>
       </c>
       <c r="F18">
-        <v>25.03151664656083</v>
+        <v>19.39574318017997</v>
       </c>
       <c r="G18">
-        <v>2.094972742821944</v>
+        <v>20.03480580667658</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.514143142824151</v>
       </c>
       <c r="J18">
-        <v>6.021995591072182</v>
+        <v>8.485232464348915</v>
       </c>
       <c r="K18">
-        <v>12.75605885929967</v>
+        <v>12.2810557096722</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.969865082630109</v>
       </c>
       <c r="M18">
-        <v>12.6106015637252</v>
+        <v>12.21191563419298</v>
       </c>
       <c r="N18">
-        <v>12.57376094764692</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.59929774091575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.73558335890898</v>
+      </c>
+      <c r="P18">
+        <v>12.101074751189</v>
+      </c>
+      <c r="Q18">
+        <v>13.52278647645411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.82317241706892</v>
+        <v>13.94612467831543</v>
       </c>
       <c r="C19">
-        <v>7.280617858298835</v>
+        <v>7.268013896827393</v>
       </c>
       <c r="D19">
-        <v>7.163579300380056</v>
+        <v>7.581800865046201</v>
       </c>
       <c r="E19">
-        <v>9.801990225433967</v>
+        <v>9.5578492861857</v>
       </c>
       <c r="F19">
-        <v>24.99970238619809</v>
+        <v>20.24057102462678</v>
       </c>
       <c r="G19">
-        <v>2.095366855917261</v>
+        <v>20.92319507756136</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.00925933144106</v>
       </c>
       <c r="J19">
-        <v>6.021052293961155</v>
+        <v>8.627543123768593</v>
       </c>
       <c r="K19">
-        <v>12.70459716862835</v>
+        <v>12.52149439466186</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.226648448999669</v>
       </c>
       <c r="M19">
-        <v>12.5723978841057</v>
+        <v>12.25007611916339</v>
       </c>
       <c r="N19">
-        <v>12.59136989395516</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.59176255878926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.49828139745869</v>
+      </c>
+      <c r="P19">
+        <v>12.07904475477917</v>
+      </c>
+      <c r="Q19">
+        <v>13.88494644384488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.11156821975933</v>
+        <v>14.27411585066966</v>
       </c>
       <c r="C20">
-        <v>7.398253204289837</v>
+        <v>7.6134644531385</v>
       </c>
       <c r="D20">
-        <v>7.261736285957096</v>
+        <v>8.564685179251754</v>
       </c>
       <c r="E20">
-        <v>9.894720760938338</v>
+        <v>11.44131400102346</v>
       </c>
       <c r="F20">
-        <v>25.14404588436945</v>
+        <v>21.64042474480582</v>
       </c>
       <c r="G20">
-        <v>2.093598599245126</v>
+        <v>22.38247495157288</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.75281415862577</v>
       </c>
       <c r="J20">
-        <v>6.025484915292766</v>
+        <v>8.824681756671636</v>
       </c>
       <c r="K20">
-        <v>12.93467560550006</v>
+        <v>12.83525509720094</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.853949139150731</v>
       </c>
       <c r="M20">
-        <v>12.74376202970342</v>
+        <v>12.5760505861908</v>
       </c>
       <c r="N20">
-        <v>12.51227176767264</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.62670076597861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.8440974961907</v>
+      </c>
+      <c r="P20">
+        <v>11.99155959677488</v>
+      </c>
+      <c r="Q20">
+        <v>14.43680108325065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.04623903115503</v>
+        <v>15.09893128546958</v>
       </c>
       <c r="C21">
-        <v>7.781136147906127</v>
+        <v>8.022502321891597</v>
       </c>
       <c r="D21">
-        <v>7.585578208534644</v>
+        <v>9.000502017788834</v>
       </c>
       <c r="E21">
-        <v>10.20661279261854</v>
+        <v>11.98616983149475</v>
       </c>
       <c r="F21">
-        <v>25.64964177543494</v>
+        <v>22.16142065711402</v>
       </c>
       <c r="G21">
-        <v>2.08774753467234</v>
+        <v>22.93235659707891</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.984219723809408</v>
       </c>
       <c r="J21">
-        <v>6.043720669034667</v>
+        <v>8.818228371736827</v>
       </c>
       <c r="K21">
-        <v>13.6814583895553</v>
+        <v>12.76341987085797</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.02323469548613</v>
       </c>
       <c r="M21">
-        <v>13.30941688477175</v>
+        <v>13.2429896388405</v>
       </c>
       <c r="N21">
-        <v>12.24891311813909</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.76251956173119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.52363876655382</v>
+      </c>
+      <c r="P21">
+        <v>11.81698337019245</v>
+      </c>
+      <c r="Q21">
+        <v>14.54609748464017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.63179411790671</v>
+        <v>15.61128778013081</v>
       </c>
       <c r="C22">
-        <v>8.022139330826901</v>
+        <v>8.268997473278288</v>
       </c>
       <c r="D22">
-        <v>7.792557194806101</v>
+        <v>9.236299299750359</v>
       </c>
       <c r="E22">
-        <v>10.41044007973233</v>
+        <v>12.24586961423715</v>
       </c>
       <c r="F22">
-        <v>25.99548856556265</v>
+        <v>22.44597083013235</v>
       </c>
       <c r="G22">
-        <v>2.083987311314362</v>
+        <v>23.23990582037618</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.127137131153569</v>
       </c>
       <c r="J22">
-        <v>6.058201388054209</v>
+        <v>8.807670373064626</v>
       </c>
       <c r="K22">
-        <v>14.15007864053641</v>
+        <v>12.70662720005355</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.098573264667254</v>
       </c>
       <c r="M22">
-        <v>13.67117763502805</v>
+        <v>13.65571272381053</v>
       </c>
       <c r="N22">
-        <v>12.07842955814485</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.86552600232584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.89936348822955</v>
+      </c>
+      <c r="P22">
+        <v>11.7059048105286</v>
+      </c>
+      <c r="Q22">
+        <v>14.59952971088176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.32157107676487</v>
+        <v>15.33993974224655</v>
       </c>
       <c r="C23">
-        <v>7.894356986192941</v>
+        <v>8.138359501109797</v>
       </c>
       <c r="D23">
-        <v>7.682529659151989</v>
+        <v>9.11112543947827</v>
       </c>
       <c r="E23">
-        <v>10.30167046377113</v>
+        <v>12.10791090300278</v>
       </c>
       <c r="F23">
-        <v>25.80949151965554</v>
+        <v>22.29356774389699</v>
       </c>
       <c r="G23">
-        <v>2.085988596542669</v>
+        <v>23.07462838125861</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.05115734358984</v>
       </c>
       <c r="J23">
-        <v>6.050233674031078</v>
+        <v>8.812960029559216</v>
       </c>
       <c r="K23">
-        <v>13.90173813555571</v>
+        <v>12.73625560116569</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.058486273594944</v>
       </c>
       <c r="M23">
-        <v>13.47884752674436</v>
+        <v>13.43701165963063</v>
       </c>
       <c r="N23">
-        <v>12.16928018894094</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.80921455607818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.70002175749269</v>
+      </c>
+      <c r="P23">
+        <v>11.76504720325544</v>
+      </c>
+      <c r="Q23">
+        <v>14.57025784394396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.09586058226898</v>
+        <v>14.26589334518893</v>
       </c>
       <c r="C24">
-        <v>7.391839621327562</v>
+        <v>7.623420516347633</v>
       </c>
       <c r="D24">
-        <v>7.256367712033686</v>
+        <v>8.622437754922723</v>
       </c>
       <c r="E24">
-        <v>9.889626509172658</v>
+        <v>11.57141676871742</v>
       </c>
       <c r="F24">
-        <v>25.1360417848415</v>
+        <v>21.72830678209018</v>
       </c>
       <c r="G24">
-        <v>2.093695356536117</v>
+        <v>22.47362760366815</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.75676301840552</v>
       </c>
       <c r="J24">
-        <v>6.025229101579688</v>
+        <v>8.840435344041621</v>
       </c>
       <c r="K24">
-        <v>12.92213981892492</v>
+        <v>12.86309926803046</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.903999468748904</v>
       </c>
       <c r="M24">
-        <v>12.73438843786522</v>
+        <v>12.574134080663</v>
       </c>
       <c r="N24">
-        <v>12.51660605300561</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.62471408998907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.91921363769193</v>
+      </c>
+      <c r="P24">
+        <v>11.99221564012024</v>
+      </c>
+      <c r="Q24">
+        <v>14.47569025508144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.66342892391674</v>
+        <v>13.00787215328561</v>
       </c>
       <c r="C25">
-        <v>6.810373719452036</v>
+        <v>7.025465073802832</v>
       </c>
       <c r="D25">
-        <v>6.778259396678084</v>
+        <v>8.065776834769752</v>
       </c>
       <c r="E25">
-        <v>9.446852370734446</v>
+        <v>10.964509421004</v>
       </c>
       <c r="F25">
-        <v>24.47544407411505</v>
+        <v>21.14550487233</v>
       </c>
       <c r="G25">
-        <v>2.102303281568769</v>
+        <v>21.87901013735532</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.699994853968978</v>
       </c>
       <c r="J25">
-        <v>6.008800011050034</v>
+        <v>8.885067291423617</v>
       </c>
       <c r="K25">
-        <v>11.78128770744072</v>
+        <v>13.02890355926274</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.731876687902193</v>
       </c>
       <c r="M25">
-        <v>11.90009213263005</v>
+        <v>11.57010319596302</v>
       </c>
       <c r="N25">
-        <v>12.8992467638886</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.48353933189924</v>
+        <v>12.02404947187529</v>
+      </c>
+      <c r="P25">
+        <v>12.24434682195072</v>
+      </c>
+      <c r="Q25">
+        <v>14.40673188948825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.99562131285277</v>
+        <v>11.87286417370804</v>
       </c>
       <c r="C2">
-        <v>6.549433226907755</v>
+        <v>6.767715758553298</v>
       </c>
       <c r="D2">
-        <v>7.632554719209314</v>
+        <v>7.701655951862689</v>
       </c>
       <c r="E2">
-        <v>10.49533844493638</v>
+        <v>10.5300523661444</v>
       </c>
       <c r="F2">
-        <v>20.74076664456784</v>
+        <v>20.47006786919191</v>
       </c>
       <c r="G2">
-        <v>21.48718481350682</v>
+        <v>20.40917877136095</v>
       </c>
       <c r="H2">
-        <v>1.964243184740294</v>
+        <v>1.947304492737443</v>
       </c>
       <c r="J2">
-        <v>8.929955762620624</v>
+        <v>9.23359807567449</v>
       </c>
       <c r="K2">
-        <v>13.17379629646802</v>
+        <v>12.84570527020797</v>
       </c>
       <c r="L2">
-        <v>6.600632790253826</v>
+        <v>11.32789161335398</v>
       </c>
       <c r="M2">
-        <v>10.76870369856153</v>
+        <v>7.676467665383107</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.600044607645637</v>
       </c>
       <c r="O2">
-        <v>11.32222663470136</v>
+        <v>10.77502134392953</v>
       </c>
       <c r="P2">
-        <v>12.43643281253769</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.38251529653018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.34935226541075</v>
+      </c>
+      <c r="R2">
+        <v>12.3808563930529</v>
+      </c>
+      <c r="S2">
+        <v>14.16680335179225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.25594770849358</v>
+        <v>11.18195753644651</v>
       </c>
       <c r="C3">
-        <v>6.205154265081398</v>
+        <v>6.325906923562692</v>
       </c>
       <c r="D3">
-        <v>7.325722872030831</v>
+        <v>7.390635348631291</v>
       </c>
       <c r="E3">
-        <v>10.16467844977259</v>
+        <v>10.20488884681068</v>
       </c>
       <c r="F3">
-        <v>20.48221613043652</v>
+        <v>20.23779275334584</v>
       </c>
       <c r="G3">
-        <v>21.24999335548357</v>
+        <v>20.24157535971285</v>
       </c>
       <c r="H3">
-        <v>2.152060567775271</v>
+        <v>2.126974875159794</v>
       </c>
       <c r="J3">
-        <v>8.96746012207776</v>
+        <v>9.245145921923998</v>
       </c>
       <c r="K3">
-        <v>13.28523911044352</v>
+        <v>12.9650332305218</v>
       </c>
       <c r="L3">
-        <v>6.508993187490507</v>
+        <v>11.4923232564507</v>
       </c>
       <c r="M3">
-        <v>10.18760341795471</v>
+        <v>7.712039326563335</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.513487851472973</v>
       </c>
       <c r="O3">
-        <v>10.82185541534739</v>
+        <v>10.19643998667966</v>
       </c>
       <c r="P3">
-        <v>12.57079626141022</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.3816969764894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.84683857968402</v>
+      </c>
+      <c r="R3">
+        <v>12.50241166271101</v>
+      </c>
+      <c r="S3">
+        <v>14.17958958931534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.77537959875516</v>
+        <v>10.73336365397496</v>
       </c>
       <c r="C4">
-        <v>5.983381989753285</v>
+        <v>6.040127243995185</v>
       </c>
       <c r="D4">
-        <v>7.131350400011291</v>
+        <v>7.19391202366087</v>
       </c>
       <c r="E4">
-        <v>9.955869319390478</v>
+        <v>9.999849094845366</v>
       </c>
       <c r="F4">
-        <v>20.33137886912975</v>
+        <v>20.10201057691786</v>
       </c>
       <c r="G4">
-        <v>21.118144909104</v>
+        <v>20.15355817446297</v>
       </c>
       <c r="H4">
-        <v>2.271777672658236</v>
+        <v>2.241538611914835</v>
       </c>
       <c r="J4">
-        <v>8.993847999145935</v>
+        <v>9.254003374176088</v>
       </c>
       <c r="K4">
-        <v>13.35989574090725</v>
+        <v>13.04317172114038</v>
       </c>
       <c r="L4">
-        <v>6.451441588474434</v>
+        <v>11.59812123295098</v>
       </c>
       <c r="M4">
-        <v>9.81245728837971</v>
+        <v>7.755012701571736</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.459169235093312</v>
       </c>
       <c r="O4">
-        <v>10.50323500608032</v>
+        <v>9.8229639775967</v>
       </c>
       <c r="P4">
-        <v>12.65541288838502</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.38855520889492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.52680167351018</v>
+      </c>
+      <c r="R4">
+        <v>12.57924678717257</v>
+      </c>
+      <c r="S4">
+        <v>14.19368574659703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.57292511061403</v>
+        <v>10.54446077004858</v>
       </c>
       <c r="C5">
-        <v>5.890455052791889</v>
+        <v>5.920081034304824</v>
       </c>
       <c r="D5">
-        <v>7.05073483272148</v>
+        <v>7.112402840755336</v>
       </c>
       <c r="E5">
-        <v>9.869404986585046</v>
+        <v>9.915022597240474</v>
       </c>
       <c r="F5">
-        <v>20.27192043244674</v>
+        <v>20.0484057162325</v>
       </c>
       <c r="G5">
-        <v>21.06784483112152</v>
+        <v>20.12134530694851</v>
       </c>
       <c r="H5">
-        <v>2.321681255817911</v>
+        <v>2.289303057575725</v>
       </c>
       <c r="J5">
-        <v>9.005426887325905</v>
+        <v>9.258049850498143</v>
       </c>
       <c r="K5">
-        <v>13.39184244464541</v>
+        <v>13.0762087571163</v>
       </c>
       <c r="L5">
-        <v>6.427673196390361</v>
+        <v>11.64246158258919</v>
       </c>
       <c r="M5">
-        <v>9.655044598364523</v>
+        <v>7.777727925339637</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.436746075568434</v>
       </c>
       <c r="O5">
-        <v>10.37067467004487</v>
+        <v>9.666267578873903</v>
       </c>
       <c r="P5">
-        <v>12.69043443334301</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.39315131915398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.39364147192219</v>
+      </c>
+      <c r="R5">
+        <v>12.61111525418259</v>
+      </c>
+      <c r="S5">
+        <v>14.20095556527793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.53890874431554</v>
+        <v>10.51272649755688</v>
       </c>
       <c r="C6">
-        <v>5.874872357198014</v>
+        <v>5.899932779569131</v>
       </c>
       <c r="D6">
-        <v>7.037266715154966</v>
+        <v>7.098790499958291</v>
       </c>
       <c r="E6">
-        <v>9.854967248547613</v>
+        <v>9.900863039302452</v>
       </c>
       <c r="F6">
-        <v>20.26216919463216</v>
+        <v>20.03960917528678</v>
       </c>
       <c r="G6">
-        <v>21.0596983516837</v>
+        <v>20.11621431225819</v>
       </c>
       <c r="H6">
-        <v>2.330035581647775</v>
+        <v>2.297299788215956</v>
       </c>
       <c r="J6">
-        <v>9.007398864406666</v>
+        <v>9.258747946429191</v>
       </c>
       <c r="K6">
-        <v>13.39723796722432</v>
+        <v>13.08176586773867</v>
       </c>
       <c r="L6">
-        <v>6.423707629321015</v>
+        <v>11.64989867212373</v>
       </c>
       <c r="M6">
-        <v>9.628634861897236</v>
+        <v>7.781810281055725</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.433005546917549</v>
       </c>
       <c r="O6">
-        <v>10.34850348409322</v>
+        <v>9.63997908498181</v>
       </c>
       <c r="P6">
-        <v>12.69628253366276</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.39402183576362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.37136940007029</v>
+      </c>
+      <c r="R6">
+        <v>12.61644079170803</v>
+      </c>
+      <c r="S6">
+        <v>14.20225353996424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.77267599189996</v>
+        <v>10.72842081353685</v>
       </c>
       <c r="C7">
-        <v>5.982138995525984</v>
+        <v>6.03224067908407</v>
       </c>
       <c r="D7">
-        <v>7.130268752942285</v>
+        <v>7.195684048572332</v>
       </c>
       <c r="E7">
-        <v>9.954708677304467</v>
+        <v>9.999754093682629</v>
       </c>
       <c r="F7">
-        <v>20.33056883628886</v>
+        <v>20.09134053874917</v>
       </c>
       <c r="G7">
-        <v>21.11745271734461</v>
+        <v>20.23029893640851</v>
       </c>
       <c r="H7">
-        <v>2.272446147357314</v>
+        <v>2.242641766398947</v>
       </c>
       <c r="J7">
-        <v>8.994000838274188</v>
+        <v>9.223275710047231</v>
       </c>
       <c r="K7">
-        <v>13.36032047204619</v>
+        <v>13.03953317544633</v>
       </c>
       <c r="L7">
-        <v>6.451122307752613</v>
+        <v>11.59475021312882</v>
       </c>
       <c r="M7">
-        <v>9.810352624662045</v>
+        <v>7.753161420556862</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.458556179627909</v>
       </c>
       <c r="O7">
-        <v>10.50145805773927</v>
+        <v>9.817393851361361</v>
       </c>
       <c r="P7">
-        <v>12.65588300690347</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.38860996601096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.52368586212033</v>
+      </c>
+      <c r="R7">
+        <v>12.57972815337772</v>
+      </c>
+      <c r="S7">
+        <v>14.18677527400578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.74607155636892</v>
+        <v>11.63225693245065</v>
       </c>
       <c r="C8">
-        <v>6.43291213797509</v>
+        <v>6.598939689329285</v>
       </c>
       <c r="D8">
-        <v>7.528053259185516</v>
+        <v>7.604792225413036</v>
       </c>
       <c r="E8">
-        <v>10.38257338804172</v>
+        <v>10.42254552175</v>
       </c>
       <c r="F8">
-        <v>20.64998879789744</v>
+        <v>20.35611894060776</v>
       </c>
       <c r="G8">
-        <v>21.40251979457052</v>
+        <v>20.60312375499695</v>
       </c>
       <c r="H8">
-        <v>2.028097686289346</v>
+        <v>2.009806311657977</v>
       </c>
       <c r="J8">
-        <v>8.942178106251891</v>
+        <v>9.136934402282062</v>
       </c>
       <c r="K8">
-        <v>13.21090206656249</v>
+        <v>12.87238436393683</v>
       </c>
       <c r="L8">
-        <v>6.569306357842403</v>
+        <v>11.37178205664826</v>
       </c>
       <c r="M8">
-        <v>10.57218890195614</v>
+        <v>7.675501163896895</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.569488184560764</v>
       </c>
       <c r="O8">
-        <v>11.15214287796698</v>
+        <v>10.56853334421639</v>
       </c>
       <c r="P8">
-        <v>12.48232639559598</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.38067577512459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.17434895598249</v>
+      </c>
+      <c r="R8">
+        <v>12.42278231850442</v>
+      </c>
+      <c r="S8">
+        <v>14.1467670057261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.44497591854077</v>
+        <v>13.21929791560747</v>
       </c>
       <c r="C9">
-        <v>7.232508655702458</v>
+        <v>7.616404820723914</v>
       </c>
       <c r="D9">
-        <v>8.257071283970813</v>
+        <v>8.346793215782595</v>
       </c>
       <c r="E9">
-        <v>11.17255713521415</v>
+        <v>11.20169705025717</v>
       </c>
       <c r="F9">
-        <v>21.33811462925372</v>
+        <v>20.96563034148629</v>
       </c>
       <c r="G9">
-        <v>22.0721396455225</v>
+        <v>21.16903829210108</v>
       </c>
       <c r="H9">
-        <v>1.583235621692126</v>
+        <v>1.584696383251225</v>
       </c>
       <c r="J9">
-        <v>8.868107714867099</v>
+        <v>9.091168500002698</v>
       </c>
       <c r="K9">
-        <v>12.96937207454235</v>
+        <v>12.59946543723284</v>
       </c>
       <c r="L9">
-        <v>6.79057203135006</v>
+        <v>10.98698360768651</v>
       </c>
       <c r="M9">
-        <v>11.91804190459195</v>
+        <v>7.70197254328451</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.778572153601188</v>
       </c>
       <c r="O9">
-        <v>12.33243839653602</v>
+        <v>11.90699408903991</v>
       </c>
       <c r="P9">
-        <v>12.15843764084777</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.42570817106117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.35861189840012</v>
+      </c>
+      <c r="R9">
+        <v>12.13211742315042</v>
+      </c>
+      <c r="S9">
+        <v>14.14543340211298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.5581864172359</v>
+        <v>14.25151008828535</v>
       </c>
       <c r="C10">
-        <v>7.745635458808159</v>
+        <v>8.234925219292071</v>
       </c>
       <c r="D10">
-        <v>8.676451645565054</v>
+        <v>8.789212136269622</v>
       </c>
       <c r="E10">
-        <v>11.54556905931287</v>
+        <v>11.57354161696898</v>
       </c>
       <c r="F10">
-        <v>21.75873068936552</v>
+        <v>21.27552939021299</v>
       </c>
       <c r="G10">
-        <v>22.50704564787539</v>
+        <v>21.9718105610249</v>
       </c>
       <c r="H10">
-        <v>1.830181129805946</v>
+        <v>1.813558058561037</v>
       </c>
       <c r="J10">
-        <v>8.81206680319279</v>
+        <v>8.882869935254346</v>
       </c>
       <c r="K10">
-        <v>12.79271072419054</v>
+        <v>12.37322229402423</v>
       </c>
       <c r="L10">
-        <v>6.880145761632224</v>
+        <v>10.69163468646615</v>
       </c>
       <c r="M10">
-        <v>12.80258570135547</v>
+        <v>7.780469842679867</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.858783918829555</v>
       </c>
       <c r="O10">
-        <v>13.02773489738999</v>
+        <v>12.77034906965243</v>
       </c>
       <c r="P10">
-        <v>11.93298363848741</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.44754269774285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.04954448216017</v>
+      </c>
+      <c r="R10">
+        <v>11.93488867236097</v>
+      </c>
+      <c r="S10">
+        <v>14.09139337096541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.9776262546698</v>
+        <v>14.64366464388711</v>
       </c>
       <c r="C11">
-        <v>7.789334104498137</v>
+        <v>8.218615089017153</v>
       </c>
       <c r="D11">
-        <v>8.165451179918785</v>
+        <v>8.302855900151643</v>
       </c>
       <c r="E11">
-        <v>10.2711443403535</v>
+        <v>10.30050767694966</v>
       </c>
       <c r="F11">
-        <v>20.90973106633806</v>
+        <v>20.32989497300327</v>
       </c>
       <c r="G11">
-        <v>21.62933655315231</v>
+        <v>22.0452714250969</v>
       </c>
       <c r="H11">
-        <v>2.761087987202789</v>
+        <v>2.745134084541278</v>
       </c>
       <c r="J11">
-        <v>8.618681936989194</v>
+        <v>8.410245800396213</v>
       </c>
       <c r="K11">
-        <v>12.42844256333098</v>
+        <v>11.98983488325459</v>
       </c>
       <c r="L11">
-        <v>6.416359534305946</v>
+        <v>10.38138605799073</v>
       </c>
       <c r="M11">
-        <v>13.08673231848676</v>
+        <v>7.566541841726054</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.39235274682666</v>
       </c>
       <c r="O11">
-        <v>12.40518595407928</v>
+        <v>13.01778289277305</v>
       </c>
       <c r="P11">
-        <v>11.86629715666819</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.02083994754169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.4125902501302</v>
+      </c>
+      <c r="R11">
+        <v>11.89685879644789</v>
+      </c>
+      <c r="S11">
+        <v>13.59703020637318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.10555858926669</v>
+        <v>14.77169789901685</v>
       </c>
       <c r="C12">
-        <v>7.721596146093271</v>
+        <v>8.096161245040456</v>
       </c>
       <c r="D12">
-        <v>7.644544460394178</v>
+        <v>7.788140442407804</v>
       </c>
       <c r="E12">
-        <v>9.209902840964352</v>
+        <v>9.23324360536548</v>
       </c>
       <c r="F12">
-        <v>20.09060281861771</v>
+        <v>19.48990479592112</v>
       </c>
       <c r="G12">
-        <v>20.77484599724128</v>
+        <v>21.64298392499739</v>
       </c>
       <c r="H12">
-        <v>4.065379751289358</v>
+        <v>4.053806282101995</v>
       </c>
       <c r="J12">
-        <v>8.463663444378447</v>
+        <v>8.179706314130252</v>
       </c>
       <c r="K12">
-        <v>12.15449589514935</v>
+        <v>11.7286803967342</v>
       </c>
       <c r="L12">
-        <v>6.111459002702575</v>
+        <v>10.19913399297967</v>
       </c>
       <c r="M12">
-        <v>13.14647133144422</v>
+        <v>7.369236528597716</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.088451489694107</v>
       </c>
       <c r="O12">
-        <v>11.72747448352921</v>
+        <v>13.06050650399228</v>
       </c>
       <c r="P12">
-        <v>11.8663422501763</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.64728190747049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.72774528429466</v>
+      </c>
+      <c r="R12">
+        <v>11.91494235044387</v>
+      </c>
+      <c r="S12">
+        <v>13.21080797001289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.02137131114336</v>
+        <v>14.71336349233029</v>
       </c>
       <c r="C13">
-        <v>7.562424762259468</v>
+        <v>7.893556240739782</v>
       </c>
       <c r="D13">
-        <v>7.074398802139482</v>
+        <v>7.204827747403433</v>
       </c>
       <c r="E13">
-        <v>8.273366688367918</v>
+        <v>8.284286381345849</v>
       </c>
       <c r="F13">
-        <v>19.23801648628142</v>
+        <v>18.69394565846179</v>
       </c>
       <c r="G13">
-        <v>19.87566581132155</v>
+        <v>20.64409883682756</v>
       </c>
       <c r="H13">
-        <v>5.461322226823959</v>
+        <v>5.467928756525936</v>
       </c>
       <c r="J13">
-        <v>8.328803437483927</v>
+        <v>8.126061161468074</v>
       </c>
       <c r="K13">
-        <v>11.93428526001909</v>
+        <v>11.55279633029859</v>
       </c>
       <c r="L13">
-        <v>5.922919028375985</v>
+        <v>10.09685253959108</v>
       </c>
       <c r="M13">
-        <v>13.03914989935829</v>
+        <v>7.184730755790788</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.904090814060624</v>
       </c>
       <c r="O13">
-        <v>10.95070615327544</v>
+        <v>12.95682314043846</v>
       </c>
       <c r="P13">
-        <v>11.91453204622407</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.29090064269272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.95140870776726</v>
+      </c>
+      <c r="R13">
+        <v>11.96891791148399</v>
+      </c>
+      <c r="S13">
+        <v>12.89775477817122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.86541142003824</v>
+        <v>14.58732642461517</v>
       </c>
       <c r="C14">
-        <v>7.407986415919475</v>
+        <v>7.712492404541367</v>
       </c>
       <c r="D14">
-        <v>6.65010633166101</v>
+        <v>6.763143124116711</v>
       </c>
       <c r="E14">
-        <v>7.720531040914068</v>
+        <v>7.721679778199634</v>
       </c>
       <c r="F14">
-        <v>18.62705830128202</v>
+        <v>18.15453185421662</v>
       </c>
       <c r="G14">
-        <v>19.22552895613585</v>
+        <v>19.68870258175104</v>
       </c>
       <c r="H14">
-        <v>6.488634557713419</v>
+        <v>6.493526857288201</v>
       </c>
       <c r="J14">
-        <v>8.244287463995112</v>
+        <v>8.154147366619702</v>
       </c>
       <c r="K14">
-        <v>11.80659919311949</v>
+        <v>11.46741739514538</v>
       </c>
       <c r="L14">
-        <v>5.865448052741792</v>
+        <v>10.05714018780974</v>
       </c>
       <c r="M14">
-        <v>12.88723738531027</v>
+        <v>7.064470363964166</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.850768582191989</v>
       </c>
       <c r="O14">
-        <v>10.35515100635437</v>
+        <v>12.81656031077938</v>
       </c>
       <c r="P14">
-        <v>11.96974282941469</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.05084706611484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.35930101925313</v>
+      </c>
+      <c r="R14">
+        <v>12.02133353503298</v>
+      </c>
+      <c r="S14">
+        <v>12.71034604292265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.78135526486763</v>
+        <v>14.51584757948243</v>
       </c>
       <c r="C15">
-        <v>7.350171040488643</v>
+        <v>7.64945746235415</v>
       </c>
       <c r="D15">
-        <v>6.535807630034396</v>
+        <v>6.641331951408167</v>
       </c>
       <c r="E15">
-        <v>7.601820636158379</v>
+        <v>7.600900296616891</v>
       </c>
       <c r="F15">
-        <v>18.47354764643368</v>
+        <v>18.03159901869495</v>
       </c>
       <c r="G15">
-        <v>19.06092786749092</v>
+        <v>19.35233293707872</v>
       </c>
       <c r="H15">
-        <v>6.726245217822462</v>
+        <v>6.730604109441369</v>
       </c>
       <c r="J15">
-        <v>8.228674267387523</v>
+        <v>8.190325175158415</v>
       </c>
       <c r="K15">
-        <v>11.78786044365527</v>
+        <v>11.46354185820616</v>
       </c>
       <c r="L15">
-        <v>5.86101122024158</v>
+        <v>10.06142887790604</v>
       </c>
       <c r="M15">
-        <v>12.81385380728568</v>
+        <v>7.039582329216026</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.847838621696685</v>
       </c>
       <c r="O15">
-        <v>10.18844458824621</v>
+        <v>12.74996670817137</v>
       </c>
       <c r="P15">
-        <v>11.99182980465732</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.99768872839483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.19475132296408</v>
+      </c>
+      <c r="R15">
+        <v>12.03979254375723</v>
+      </c>
+      <c r="S15">
+        <v>12.67920615994764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.33857647305805</v>
+        <v>14.11967781120367</v>
       </c>
       <c r="C16">
-        <v>7.160846174563668</v>
+        <v>7.465747053674746</v>
       </c>
       <c r="D16">
-        <v>6.447131998389066</v>
+        <v>6.525889667689806</v>
       </c>
       <c r="E16">
-        <v>7.604235904639632</v>
+        <v>7.606303820958694</v>
       </c>
       <c r="F16">
-        <v>18.45196938466863</v>
+        <v>18.11986251798219</v>
       </c>
       <c r="G16">
-        <v>19.03378941092023</v>
+        <v>18.53782882105618</v>
       </c>
       <c r="H16">
-        <v>6.515458068856912</v>
+        <v>6.518016864458525</v>
       </c>
       <c r="J16">
-        <v>8.279695553173582</v>
+        <v>8.464547684988887</v>
       </c>
       <c r="K16">
-        <v>11.90886354077839</v>
+        <v>11.62311093026507</v>
       </c>
       <c r="L16">
-        <v>5.854747927809137</v>
+        <v>10.19791255231656</v>
       </c>
       <c r="M16">
-        <v>12.46598544075054</v>
+        <v>7.080411741501748</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.846207524709184</v>
       </c>
       <c r="O16">
-        <v>10.01205108481374</v>
+        <v>12.43519118353919</v>
       </c>
       <c r="P16">
-        <v>12.06974025825145</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.05799276106421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.02923951943788</v>
+      </c>
+      <c r="R16">
+        <v>12.09351040389354</v>
+      </c>
+      <c r="S16">
+        <v>12.81643441351903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.07831678973689</v>
+        <v>13.87618146809904</v>
       </c>
       <c r="C17">
-        <v>7.098561071988131</v>
+        <v>7.415132070795767</v>
       </c>
       <c r="D17">
-        <v>6.610257791026513</v>
+        <v>6.680607571463764</v>
       </c>
       <c r="E17">
-        <v>7.879599768710589</v>
+        <v>7.886826735952321</v>
       </c>
       <c r="F17">
-        <v>18.76372793613421</v>
+        <v>18.46704369277179</v>
       </c>
       <c r="G17">
-        <v>19.3651818551296</v>
+        <v>18.53850861852887</v>
       </c>
       <c r="H17">
-        <v>5.774924601191363</v>
+        <v>5.776595621185079</v>
       </c>
       <c r="J17">
-        <v>8.363944992679231</v>
+        <v>8.645903119975653</v>
       </c>
       <c r="K17">
-        <v>12.06916949439909</v>
+        <v>11.78781813659708</v>
       </c>
       <c r="L17">
-        <v>5.86887428765845</v>
+        <v>10.32894651369476</v>
       </c>
       <c r="M17">
-        <v>12.27814647753507</v>
+        <v>7.169355574331147</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.861695977952329</v>
       </c>
       <c r="O17">
-        <v>10.20330908547665</v>
+        <v>12.26228063639577</v>
       </c>
       <c r="P17">
-        <v>12.10160897022743</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.23263546710394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.22560674517964</v>
+      </c>
+      <c r="R17">
+        <v>12.11160169333984</v>
+      </c>
+      <c r="S17">
+        <v>13.01461351362152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.95236532931653</v>
+        <v>13.7466095864795</v>
       </c>
       <c r="C18">
-        <v>7.14201052357938</v>
+        <v>7.487980681673696</v>
       </c>
       <c r="D18">
-        <v>7.013546753530943</v>
+        <v>7.084793116396924</v>
       </c>
       <c r="E18">
-        <v>8.530929213520604</v>
+        <v>8.543623322133811</v>
       </c>
       <c r="F18">
-        <v>19.39574318017997</v>
+        <v>19.09521810849024</v>
       </c>
       <c r="G18">
-        <v>20.03480580667658</v>
+        <v>19.05327546285579</v>
       </c>
       <c r="H18">
-        <v>4.514143142824151</v>
+        <v>4.515687891447735</v>
       </c>
       <c r="J18">
-        <v>8.485232464348915</v>
+        <v>8.802149189175386</v>
       </c>
       <c r="K18">
-        <v>12.2810557096722</v>
+        <v>11.9839312963101</v>
       </c>
       <c r="L18">
-        <v>5.969865082630109</v>
+        <v>10.47688888505413</v>
       </c>
       <c r="M18">
-        <v>12.21191563419298</v>
+        <v>7.309974679607629</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.961708487490109</v>
       </c>
       <c r="O18">
-        <v>10.73558335890898</v>
+        <v>12.20274290354942</v>
       </c>
       <c r="P18">
-        <v>12.101074751189</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.52278647645411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.76096486378142</v>
+      </c>
+      <c r="R18">
+        <v>12.10201293492835</v>
+      </c>
+      <c r="S18">
+        <v>13.3004522161336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.94612467831543</v>
+        <v>13.72238150441867</v>
       </c>
       <c r="C19">
-        <v>7.268013896827393</v>
+        <v>7.659615685697204</v>
       </c>
       <c r="D19">
-        <v>7.581800865046201</v>
+        <v>7.659146998561613</v>
       </c>
       <c r="E19">
-        <v>9.5578492861857</v>
+        <v>9.575402309865092</v>
       </c>
       <c r="F19">
-        <v>20.24057102462678</v>
+        <v>19.91274086449762</v>
       </c>
       <c r="G19">
-        <v>20.92319507756136</v>
+        <v>19.87114388037575</v>
       </c>
       <c r="H19">
-        <v>3.00925933144106</v>
+        <v>3.011866343955084</v>
       </c>
       <c r="J19">
-        <v>8.627543123768593</v>
+        <v>8.945226099573269</v>
       </c>
       <c r="K19">
-        <v>12.52149439466186</v>
+        <v>12.19605633800758</v>
       </c>
       <c r="L19">
-        <v>6.226648448999669</v>
+        <v>10.63061694602336</v>
       </c>
       <c r="M19">
-        <v>12.25007611916339</v>
+        <v>7.484562282860657</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.215797285916802</v>
       </c>
       <c r="O19">
-        <v>11.49828139745869</v>
+        <v>12.2429317214133</v>
       </c>
       <c r="P19">
-        <v>12.07904475477917</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.88494644384488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.52579590101615</v>
+      </c>
+      <c r="R19">
+        <v>12.07363214444571</v>
+      </c>
+      <c r="S19">
+        <v>13.64176314776536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.27411585066966</v>
+        <v>13.99498216365383</v>
       </c>
       <c r="C20">
-        <v>7.6134644531385</v>
+        <v>8.093632269833154</v>
       </c>
       <c r="D20">
-        <v>8.564685179251754</v>
+        <v>8.662632621661995</v>
       </c>
       <c r="E20">
-        <v>11.44131400102346</v>
+        <v>11.46596431293476</v>
       </c>
       <c r="F20">
-        <v>21.64042474480582</v>
+        <v>21.21989928865024</v>
       </c>
       <c r="G20">
-        <v>22.38247495157288</v>
+        <v>21.48413682358957</v>
       </c>
       <c r="H20">
-        <v>1.75281415862577</v>
+        <v>1.741367324780255</v>
       </c>
       <c r="J20">
-        <v>8.824681756671636</v>
+        <v>9.038063793895008</v>
       </c>
       <c r="K20">
-        <v>12.83525509720094</v>
+        <v>12.44388451049835</v>
       </c>
       <c r="L20">
-        <v>6.853949139150731</v>
+        <v>10.77597045542755</v>
       </c>
       <c r="M20">
-        <v>12.5760505861908</v>
+        <v>7.765172457282807</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.83588011408871</v>
       </c>
       <c r="O20">
-        <v>12.8440974961907</v>
+        <v>12.5592614234133</v>
       </c>
       <c r="P20">
-        <v>11.99155959677488</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.43680108325065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.87104846655344</v>
+      </c>
+      <c r="R20">
+        <v>11.98469836518698</v>
+      </c>
+      <c r="S20">
+        <v>14.12569285534776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.09893128546958</v>
+        <v>14.72153362699613</v>
       </c>
       <c r="C21">
-        <v>8.022502321891597</v>
+        <v>8.497793288654016</v>
       </c>
       <c r="D21">
-        <v>9.000502017788834</v>
+        <v>9.163128006332347</v>
       </c>
       <c r="E21">
-        <v>11.98616983149475</v>
+        <v>12.03038503957919</v>
       </c>
       <c r="F21">
-        <v>22.16142065711402</v>
+        <v>21.47257222920093</v>
       </c>
       <c r="G21">
-        <v>22.93235659707891</v>
+        <v>23.72992136578652</v>
       </c>
       <c r="H21">
-        <v>1.984219723809408</v>
+        <v>1.954668543492664</v>
       </c>
       <c r="J21">
-        <v>8.818228371736827</v>
+        <v>8.420989864291521</v>
       </c>
       <c r="K21">
-        <v>12.76341987085797</v>
+        <v>12.24695139665021</v>
       </c>
       <c r="L21">
-        <v>7.02323469548613</v>
+        <v>10.53905615407478</v>
       </c>
       <c r="M21">
-        <v>13.2429896388405</v>
+        <v>7.825769063036199</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.993331022842278</v>
       </c>
       <c r="O21">
-        <v>13.52363876655382</v>
+        <v>13.15947161730907</v>
       </c>
       <c r="P21">
-        <v>11.81698337019245</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.54609748464017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.52681647526302</v>
+      </c>
+      <c r="R21">
+        <v>11.83792921664535</v>
+      </c>
+      <c r="S21">
+        <v>14.03822964558042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.61128778013081</v>
+        <v>15.17174177361499</v>
       </c>
       <c r="C22">
-        <v>8.268997473278288</v>
+        <v>8.731378382669009</v>
       </c>
       <c r="D22">
-        <v>9.236299299750359</v>
+        <v>9.443310754439795</v>
       </c>
       <c r="E22">
-        <v>12.24586961423715</v>
+        <v>12.30471954592831</v>
       </c>
       <c r="F22">
-        <v>22.44597083013235</v>
+        <v>21.5705080030115</v>
       </c>
       <c r="G22">
-        <v>23.23990582037618</v>
+        <v>25.27251894314088</v>
       </c>
       <c r="H22">
-        <v>2.127137131153569</v>
+        <v>2.086216996062274</v>
       </c>
       <c r="J22">
-        <v>8.807670373064626</v>
+        <v>8.05155651832043</v>
       </c>
       <c r="K22">
-        <v>12.70662720005355</v>
+        <v>12.1014395276613</v>
       </c>
       <c r="L22">
-        <v>7.098573264667254</v>
+        <v>10.37823399966549</v>
       </c>
       <c r="M22">
-        <v>13.65571272381053</v>
+        <v>7.860070231828163</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.061328630416232</v>
       </c>
       <c r="O22">
-        <v>13.89936348822955</v>
+        <v>13.52689431008859</v>
       </c>
       <c r="P22">
-        <v>11.7059048105286</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.59952971088176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.88573265343339</v>
+      </c>
+      <c r="R22">
+        <v>11.74774671434814</v>
+      </c>
+      <c r="S22">
+        <v>13.95196587515543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.33993974224655</v>
+        <v>14.93800449346517</v>
       </c>
       <c r="C23">
-        <v>8.138359501109797</v>
+        <v>8.620068336934436</v>
       </c>
       <c r="D23">
-        <v>9.11112543947827</v>
+        <v>9.28813082901768</v>
       </c>
       <c r="E23">
-        <v>12.10791090300278</v>
+        <v>12.15614170071579</v>
       </c>
       <c r="F23">
-        <v>22.29356774389699</v>
+        <v>21.5422722478227</v>
       </c>
       <c r="G23">
-        <v>23.07462838125861</v>
+        <v>24.24540024603528</v>
       </c>
       <c r="H23">
-        <v>2.05115734358984</v>
+        <v>2.017016276057446</v>
       </c>
       <c r="J23">
-        <v>8.812960029559216</v>
+        <v>8.296201130123125</v>
       </c>
       <c r="K23">
-        <v>12.73625560116569</v>
+        <v>12.18957148474835</v>
       </c>
       <c r="L23">
-        <v>7.058486273594944</v>
+        <v>10.46994938575205</v>
       </c>
       <c r="M23">
-        <v>13.43701165963063</v>
+        <v>7.850833094144789</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.025666132193095</v>
       </c>
       <c r="O23">
-        <v>13.70002175749269</v>
+        <v>13.33917283224916</v>
       </c>
       <c r="P23">
-        <v>11.76504720325544</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.57025784394396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.69819235405202</v>
+      </c>
+      <c r="R23">
+        <v>11.7945003077888</v>
+      </c>
+      <c r="S23">
+        <v>14.01592504374898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.26589334518893</v>
+        <v>13.98562381480713</v>
       </c>
       <c r="C24">
-        <v>7.623420516347633</v>
+        <v>8.108080962251735</v>
       </c>
       <c r="D24">
-        <v>8.622437754922723</v>
+        <v>8.720571424318766</v>
       </c>
       <c r="E24">
-        <v>11.57141676871742</v>
+        <v>11.59636425816636</v>
       </c>
       <c r="F24">
-        <v>21.72830678209018</v>
+        <v>21.30660735584834</v>
       </c>
       <c r="G24">
-        <v>22.47362760366815</v>
+        <v>21.55757118781239</v>
       </c>
       <c r="H24">
-        <v>1.75676301840552</v>
+        <v>1.745294413983127</v>
       </c>
       <c r="J24">
-        <v>8.840435344041621</v>
+        <v>9.05777905044066</v>
       </c>
       <c r="K24">
-        <v>12.86309926803046</v>
+        <v>12.46930466317869</v>
       </c>
       <c r="L24">
-        <v>6.903999468748904</v>
+        <v>10.79542457468505</v>
       </c>
       <c r="M24">
-        <v>12.574134080663</v>
+        <v>7.784001654821755</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.885761389400467</v>
       </c>
       <c r="O24">
-        <v>12.91921363769193</v>
+        <v>12.55796405394317</v>
       </c>
       <c r="P24">
-        <v>11.99221564012024</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.47569025508144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.94651802227901</v>
+      </c>
+      <c r="R24">
+        <v>11.98422642922062</v>
+      </c>
+      <c r="S24">
+        <v>14.16353104565019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.00787215328561</v>
+        <v>12.81375872970016</v>
       </c>
       <c r="C25">
-        <v>7.025465073802832</v>
+        <v>7.361542286933019</v>
       </c>
       <c r="D25">
-        <v>8.065776834769752</v>
+        <v>8.148200899571719</v>
       </c>
       <c r="E25">
-        <v>10.964509421004</v>
+        <v>10.99483242587447</v>
       </c>
       <c r="F25">
-        <v>21.14550487233</v>
+        <v>20.80861765622847</v>
       </c>
       <c r="G25">
-        <v>21.87901013735532</v>
+        <v>20.89515807585458</v>
       </c>
       <c r="H25">
-        <v>1.699994853968978</v>
+        <v>1.695667365841284</v>
       </c>
       <c r="J25">
-        <v>8.885067291423617</v>
+        <v>9.144236772940419</v>
       </c>
       <c r="K25">
-        <v>13.02890355926274</v>
+        <v>12.67453560245194</v>
       </c>
       <c r="L25">
-        <v>6.731876687902193</v>
+        <v>11.09152079941659</v>
       </c>
       <c r="M25">
-        <v>11.57010319596302</v>
+        <v>7.68067655815021</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.723448953309755</v>
       </c>
       <c r="O25">
-        <v>12.02404947187529</v>
+        <v>11.56526840632014</v>
       </c>
       <c r="P25">
-        <v>12.24434682195072</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.40673188948825</v>
+        <v>12.05094539281529</v>
+      </c>
+      <c r="R25">
+        <v>12.20858700461422</v>
+      </c>
+      <c r="S25">
+        <v>14.14982777064962</v>
       </c>
     </row>
   </sheetData>
